--- a/chemical-engineering/heat-transfer/return.xlsx
+++ b/chemical-engineering/heat-transfer/return.xlsx
@@ -579,7 +579,7 @@
         <v>116</v>
       </c>
       <c r="B3" t="n">
-        <v>93.19999694824219</v>
+        <v>92.80000305175781</v>
       </c>
     </row>
     <row r="4">
@@ -587,7 +587,7 @@
         <v>111</v>
       </c>
       <c r="B4" t="n">
-        <v>87.5</v>
+        <v>87.09999847412109</v>
       </c>
     </row>
     <row r="5">
@@ -595,7 +595,7 @@
         <v>109</v>
       </c>
       <c r="B5" t="n">
-        <v>86.22000122070312</v>
+        <v>85.69999694824219</v>
       </c>
     </row>
     <row r="6">
@@ -603,7 +603,7 @@
         <v>104</v>
       </c>
       <c r="B6" t="n">
-        <v>58.85000228881836</v>
+        <v>58.56666564941406</v>
       </c>
     </row>
     <row r="7">
@@ -611,7 +611,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="n">
-        <v>57.90000152587891</v>
+        <v>57.59999847412109</v>
       </c>
     </row>
     <row r="8">
@@ -619,7 +619,7 @@
         <v>69</v>
       </c>
       <c r="B8" t="n">
-        <v>52.20000076293945</v>
+        <v>51.79999923706055</v>
       </c>
     </row>
     <row r="9">
@@ -627,7 +627,7 @@
         <v>65</v>
       </c>
       <c r="B9" t="n">
-        <v>51.25</v>
+        <v>50.83333206176758</v>
       </c>
     </row>
     <row r="10">
@@ -635,7 +635,7 @@
         <v>60</v>
       </c>
       <c r="B10" t="n">
-        <v>26.76666831970215</v>
+        <v>26.41666603088379</v>
       </c>
     </row>
     <row r="11">
@@ -643,7 +643,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="n">
-        <v>25.70000076293945</v>
+        <v>25.39999961853027</v>
       </c>
     </row>
     <row r="12">

--- a/chemical-engineering/heat-transfer/return.xlsx
+++ b/chemical-engineering/heat-transfer/return.xlsx
@@ -10,6 +10,7 @@
     <sheet name="50" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="100" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="150" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="result" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,7 +450,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>50</v>
@@ -457,7 +458,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
         <v>46.40000152587891</v>
@@ -465,7 +466,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B4" t="n">
         <v>44.09999847412109</v>
@@ -473,7 +474,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B5" t="n">
         <v>43.32666778564453</v>
@@ -481,7 +482,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B6" t="n">
         <v>31.19999885559082</v>
@@ -497,7 +498,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B8" t="n">
         <v>28.39999961853027</v>
@@ -505,7 +506,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="B9" t="n">
         <v>28</v>
@@ -513,7 +514,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B10" t="n">
         <v>16.35000038146973</v>
@@ -521,7 +522,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="B11" t="n">
         <v>15.89999961853027</v>
@@ -529,7 +530,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="B12" t="n">
         <v>13.19999980926514</v>
@@ -568,7 +569,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>100</v>
@@ -576,7 +577,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
         <v>92.80000305175781</v>
@@ -584,7 +585,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B4" t="n">
         <v>87.09999847412109</v>
@@ -592,7 +593,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B5" t="n">
         <v>85.69999694824219</v>
@@ -600,7 +601,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B6" t="n">
         <v>58.56666564941406</v>
@@ -616,7 +617,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B8" t="n">
         <v>51.79999923706055</v>
@@ -624,7 +625,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="B9" t="n">
         <v>50.83333206176758</v>
@@ -632,7 +633,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B10" t="n">
         <v>26.41666603088379</v>
@@ -640,7 +641,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="B11" t="n">
         <v>25.39999961853027</v>
@@ -648,7 +649,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="B12" t="n">
         <v>19.29999923706055</v>
@@ -687,7 +688,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>150</v>
@@ -695,7 +696,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
         <v>139.3000030517578</v>
@@ -703,7 +704,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B4" t="n">
         <v>130.3000030517578</v>
@@ -711,7 +712,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B5" t="n">
         <v>128.2900085449219</v>
@@ -719,7 +720,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B6" t="n">
         <v>85.30000305175781</v>
@@ -735,7 +736,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B8" t="n">
         <v>74.80000305175781</v>
@@ -743,7 +744,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="B9" t="n">
         <v>73.30000305175781</v>
@@ -751,7 +752,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B10" t="n">
         <v>35.96666717529297</v>
@@ -759,7 +760,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="B11" t="n">
         <v>34.40000152587891</v>
@@ -767,10 +768,121 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="B12" t="n">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Δt'_A</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Δt'_B</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Δt_R</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>λ'_A</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>λ'_B</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>λ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12.12666893005371</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.466667493184411</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.250931831248494</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10.08906142054667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>128.3349952516608</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>24.41666603088379</v>
+      </c>
+      <c r="B3" t="n">
+        <v>27.13333129882812</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.866668065388992</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.958772906899636</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.7243276853315</v>
+      </c>
+      <c r="F3" t="n">
+        <v>53.55586856371897</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37.33333587646484</v>
+      </c>
+      <c r="B4" t="n">
+        <v>42.99000549316409</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.133333841959638</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.067142781724741</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.53764365378442</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40.04240916102317</v>
       </c>
     </row>
   </sheetData>
